--- a/Code/Results/Cases/Case_7_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929114506836721</v>
+        <v>1.00441783034934</v>
       </c>
       <c r="D2">
-        <v>1.011594212815909</v>
+        <v>1.020996721639522</v>
       </c>
       <c r="E2">
-        <v>1.000018339472432</v>
+        <v>1.010243755282915</v>
       </c>
       <c r="F2">
-        <v>0.9999353041003886</v>
+        <v>1.009756468845619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038559036613695</v>
+        <v>1.042908149453803</v>
       </c>
       <c r="J2">
-        <v>1.015306266107253</v>
+        <v>1.026467203032294</v>
       </c>
       <c r="K2">
-        <v>1.022894350848406</v>
+        <v>1.032171088055111</v>
       </c>
       <c r="L2">
-        <v>1.011477418802832</v>
+        <v>1.021562199460846</v>
       </c>
       <c r="M2">
-        <v>1.011395540313065</v>
+        <v>1.021081533569505</v>
       </c>
       <c r="N2">
-        <v>1.016748117462381</v>
+        <v>1.027924904198035</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992703345303358</v>
+        <v>1.008539924362561</v>
       </c>
       <c r="D3">
-        <v>1.016366840691906</v>
+        <v>1.024026456806075</v>
       </c>
       <c r="E3">
-        <v>1.005243511609889</v>
+        <v>1.013511368029528</v>
       </c>
       <c r="F3">
-        <v>1.006753882709117</v>
+        <v>1.014727202778558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040483106350821</v>
+        <v>1.04415130350188</v>
       </c>
       <c r="J3">
-        <v>1.019780910745949</v>
+        <v>1.028800459115601</v>
       </c>
       <c r="K3">
-        <v>1.026794501610273</v>
+        <v>1.034360874114798</v>
       </c>
       <c r="L3">
-        <v>1.015809737496389</v>
+        <v>1.023974238700448</v>
       </c>
       <c r="M3">
-        <v>1.017301069605051</v>
+        <v>1.025175051301744</v>
       </c>
       <c r="N3">
-        <v>1.021229116609714</v>
+        <v>1.030261473772607</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003273897293231</v>
+        <v>1.011155336999249</v>
       </c>
       <c r="D4">
-        <v>1.019374041951643</v>
+        <v>1.025951430153899</v>
       </c>
       <c r="E4">
-        <v>1.008539551681419</v>
+        <v>1.015590383550531</v>
       </c>
       <c r="F4">
-        <v>1.011050096596058</v>
+        <v>1.017882500807244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041682887937122</v>
+        <v>1.044931544882805</v>
       </c>
       <c r="J4">
-        <v>1.022594225590081</v>
+        <v>1.030277929499951</v>
       </c>
       <c r="K4">
-        <v>1.029244130118372</v>
+        <v>1.035746417303549</v>
       </c>
       <c r="L4">
-        <v>1.018535992936943</v>
+        <v>1.025504218478237</v>
       </c>
       <c r="M4">
-        <v>1.021016961266157</v>
+        <v>1.027769786238582</v>
       </c>
       <c r="N4">
-        <v>1.024046426683616</v>
+        <v>1.031741042334371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004931724261217</v>
+        <v>1.012242854254924</v>
       </c>
       <c r="D5">
-        <v>1.020619759366994</v>
+        <v>1.026752447525597</v>
       </c>
       <c r="E5">
-        <v>1.009905828352085</v>
+        <v>1.016456205955363</v>
       </c>
       <c r="F5">
-        <v>1.01282989767268</v>
+        <v>1.019194902705978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042176863949743</v>
+        <v>1.045253904189964</v>
       </c>
       <c r="J5">
-        <v>1.023758190255415</v>
+        <v>1.030891545017207</v>
       </c>
       <c r="K5">
-        <v>1.030257006710904</v>
+        <v>1.0363215865627</v>
       </c>
       <c r="L5">
-        <v>1.019664511735728</v>
+        <v>1.026140269912636</v>
       </c>
       <c r="M5">
-        <v>1.022555124048012</v>
+        <v>1.028848118675628</v>
       </c>
       <c r="N5">
-        <v>1.025212044312283</v>
+        <v>1.032355529256044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005208635319985</v>
+        <v>1.012424761009197</v>
       </c>
       <c r="D6">
-        <v>1.020827859887384</v>
+        <v>1.026886465634098</v>
       </c>
       <c r="E6">
-        <v>1.010134122755196</v>
+        <v>1.016601108279622</v>
       </c>
       <c r="F6">
-        <v>1.013127229342262</v>
+        <v>1.019414450044279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042259205589669</v>
+        <v>1.045307701845513</v>
       </c>
       <c r="J6">
-        <v>1.023952550243119</v>
+        <v>1.030994139404305</v>
       </c>
       <c r="K6">
-        <v>1.03042610086722</v>
+        <v>1.036417736889991</v>
       </c>
       <c r="L6">
-        <v>1.019852986450683</v>
+        <v>1.026246652399758</v>
       </c>
       <c r="M6">
-        <v>1.022812015181807</v>
+        <v>1.029028455287631</v>
       </c>
       <c r="N6">
-        <v>1.025406680313463</v>
+        <v>1.03245826933894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003296146884458</v>
+        <v>1.0111699150857</v>
       </c>
       <c r="D7">
-        <v>1.019390758897854</v>
+        <v>1.025962165447304</v>
       </c>
       <c r="E7">
-        <v>1.00855788285013</v>
+        <v>1.015601984570252</v>
       </c>
       <c r="F7">
-        <v>1.011073980044725</v>
+        <v>1.017900091833293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041689528856169</v>
+        <v>1.044935874312129</v>
       </c>
       <c r="J7">
-        <v>1.02260985109013</v>
+        <v>1.030286157897004</v>
       </c>
       <c r="K7">
-        <v>1.029257729831042</v>
+        <v>1.035754131216495</v>
       </c>
       <c r="L7">
-        <v>1.018551140338608</v>
+        <v>1.025512745253929</v>
       </c>
       <c r="M7">
-        <v>1.021037607008118</v>
+        <v>1.027784243489947</v>
       </c>
       <c r="N7">
-        <v>1.024062074373668</v>
+        <v>1.031749282416692</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9950842856087674</v>
+        <v>1.005821903570424</v>
       </c>
       <c r="D8">
-        <v>1.013224470512467</v>
+        <v>1.022028132688555</v>
       </c>
       <c r="E8">
-        <v>1.001802416112153</v>
+        <v>1.011355543939576</v>
       </c>
       <c r="F8">
-        <v>1.002264547929461</v>
+        <v>1.011449337576758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039218906990515</v>
+        <v>1.043333362714652</v>
       </c>
       <c r="J8">
-        <v>1.01683604963337</v>
+        <v>1.027262562214617</v>
       </c>
       <c r="K8">
-        <v>1.024228238707092</v>
+        <v>1.032917762266301</v>
       </c>
       <c r="L8">
-        <v>1.012958027755215</v>
+        <v>1.022383863144081</v>
       </c>
       <c r="M8">
-        <v>1.013413931604069</v>
+        <v>1.022476421957196</v>
       </c>
       <c r="N8">
-        <v>1.018280073456575</v>
+        <v>1.028721392881625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9796986014020899</v>
+        <v>0.9959812870339443</v>
       </c>
       <c r="D9">
-        <v>1.001694947954493</v>
+        <v>1.014812407506439</v>
       </c>
       <c r="E9">
-        <v>0.9891999217423616</v>
+        <v>1.003589430153574</v>
       </c>
       <c r="F9">
-        <v>0.9857844560006416</v>
+        <v>0.9995885607254306</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034498710191354</v>
+        <v>1.040318284007216</v>
       </c>
       <c r="J9">
-        <v>1.005989200767647</v>
+        <v>1.021676758931952</v>
       </c>
       <c r="K9">
-        <v>1.01476058553691</v>
+        <v>1.027669649570911</v>
       </c>
       <c r="L9">
-        <v>1.002470687227014</v>
+        <v>1.016624538565328</v>
       </c>
       <c r="M9">
-        <v>0.9991124594359072</v>
+        <v>1.012688316773653</v>
       </c>
       <c r="N9">
-        <v>1.007417820821311</v>
+        <v>1.023127657117598</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9687256920117481</v>
+        <v>0.9891116591341831</v>
       </c>
       <c r="D10">
-        <v>0.9934954284506065</v>
+        <v>1.009793858972303</v>
       </c>
       <c r="E10">
-        <v>0.9802551718712852</v>
+        <v>0.9982028596318435</v>
       </c>
       <c r="F10">
-        <v>0.9740468124835483</v>
+        <v>0.9913110404516836</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031073960644591</v>
+        <v>1.038170443709589</v>
       </c>
       <c r="J10">
-        <v>0.9982375328104151</v>
+        <v>1.017764038426997</v>
       </c>
       <c r="K10">
-        <v>1.00798312655092</v>
+        <v>1.023988505518495</v>
       </c>
       <c r="L10">
-        <v>0.994990317401902</v>
+        <v>1.012604637992356</v>
       </c>
       <c r="M10">
-        <v>0.988901022074236</v>
+        <v>1.005838969165114</v>
       </c>
       <c r="N10">
-        <v>0.9996551446064512</v>
+        <v>1.01920938010073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9637787685394694</v>
+        <v>0.9860566936921475</v>
       </c>
       <c r="D11">
-        <v>0.9898061352370172</v>
+        <v>1.007567220178427</v>
       </c>
       <c r="E11">
-        <v>0.976234411681824</v>
+        <v>0.9958163248959815</v>
       </c>
       <c r="F11">
-        <v>0.9687585094956304</v>
+        <v>0.9876296380247879</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029517031883384</v>
+        <v>1.037205500864357</v>
       </c>
       <c r="J11">
-        <v>0.9947400792751725</v>
+        <v>1.016021259016716</v>
       </c>
       <c r="K11">
-        <v>1.004922887871652</v>
+        <v>1.022347826982531</v>
       </c>
       <c r="L11">
-        <v>0.9916188738085876</v>
+        <v>1.010817572844849</v>
       </c>
       <c r="M11">
-        <v>0.9842946646146888</v>
+        <v>1.002788673623289</v>
       </c>
       <c r="N11">
-        <v>0.996152724286025</v>
+        <v>1.017464125743787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.961909382325449</v>
+        <v>0.9849092266672544</v>
       </c>
       <c r="D12">
-        <v>0.9884132581007792</v>
+        <v>1.00673171410088</v>
       </c>
       <c r="E12">
-        <v>0.9747169317035247</v>
+        <v>0.994921320013888</v>
       </c>
       <c r="F12">
-        <v>0.9667605923017324</v>
+        <v>0.9862467431577923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028926825463965</v>
+        <v>1.03684162851777</v>
       </c>
       <c r="J12">
-        <v>0.9934181087712266</v>
+        <v>1.01536627713162</v>
       </c>
       <c r="K12">
-        <v>1.003765860163319</v>
+        <v>1.021731071585047</v>
       </c>
       <c r="L12">
-        <v>0.9903450924200172</v>
+        <v>1.010146470646286</v>
       </c>
       <c r="M12">
-        <v>0.9825535694892906</v>
+        <v>1.001642263953799</v>
       </c>
       <c r="N12">
-        <v>0.9948288764323315</v>
+        <v>1.016808213709287</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9623118578033864</v>
+        <v>0.9851559484880144</v>
       </c>
       <c r="D13">
-        <v>0.9887130820781883</v>
+        <v>1.006911321061399</v>
       </c>
       <c r="E13">
-        <v>0.9750435532605463</v>
+        <v>0.9951136949029876</v>
       </c>
       <c r="F13">
-        <v>0.967190719576734</v>
+        <v>0.9865440927607712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029053978412409</v>
+        <v>1.036919930408457</v>
       </c>
       <c r="J13">
-        <v>0.9937027396175666</v>
+        <v>1.01550712426862</v>
       </c>
       <c r="K13">
-        <v>1.004014991182563</v>
+        <v>1.021863704900598</v>
       </c>
       <c r="L13">
-        <v>0.9906193221784805</v>
+        <v>1.010290760564237</v>
       </c>
       <c r="M13">
-        <v>0.9829284423338228</v>
+        <v>1.00188879064192</v>
       </c>
       <c r="N13">
-        <v>0.9951139114871208</v>
+        <v>1.016949260865376</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.963624910256371</v>
+        <v>0.9859621069944591</v>
       </c>
       <c r="D14">
-        <v>0.9896914689565209</v>
+        <v>1.007498331332377</v>
       </c>
       <c r="E14">
-        <v>0.976109476915839</v>
+        <v>0.9957425201803657</v>
       </c>
       <c r="F14">
-        <v>0.9685940632180664</v>
+        <v>0.9875156480207792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029468492675132</v>
+        <v>1.037175535462481</v>
       </c>
       <c r="J14">
-        <v>0.994631281569072</v>
+        <v>1.015967275843987</v>
       </c>
       <c r="K14">
-        <v>1.004827671101229</v>
+        <v>1.022296997304762</v>
       </c>
       <c r="L14">
-        <v>0.9915140305807282</v>
+        <v>1.010762250379776</v>
       </c>
       <c r="M14">
-        <v>0.9841513734123523</v>
+        <v>1.002694188509879</v>
       </c>
       <c r="N14">
-        <v>0.9960437720747027</v>
+        <v>1.017410065908761</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9644296214827682</v>
+        <v>0.9864571028207313</v>
       </c>
       <c r="D15">
-        <v>0.9902912502317116</v>
+        <v>1.007858878324851</v>
       </c>
       <c r="E15">
-        <v>0.9767629910257508</v>
+        <v>0.9961288159091279</v>
       </c>
       <c r="F15">
-        <v>0.9694541708708898</v>
+        <v>0.9881121802435344</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02972228780446</v>
+        <v>1.037332293705842</v>
       </c>
       <c r="J15">
-        <v>0.9952003039431233</v>
+        <v>1.016249767937036</v>
       </c>
       <c r="K15">
-        <v>1.00532565124891</v>
+        <v>1.022562981398296</v>
       </c>
       <c r="L15">
-        <v>0.9920623935337398</v>
+        <v>1.01105177230711</v>
       </c>
       <c r="M15">
-        <v>0.984900800140689</v>
+        <v>1.003188624049155</v>
       </c>
       <c r="N15">
-        <v>0.996613602525793</v>
+        <v>1.017692959172985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9690496758348482</v>
+        <v>0.9893126599767355</v>
       </c>
       <c r="D16">
-        <v>0.9937372126914154</v>
+        <v>1.009940472660851</v>
       </c>
       <c r="E16">
-        <v>0.9805187561012187</v>
+        <v>0.9983600715927611</v>
       </c>
       <c r="F16">
-        <v>0.9743932211788083</v>
+        <v>0.9915532436771933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031175665583043</v>
+        <v>1.038233731074159</v>
       </c>
       <c r="J16">
-        <v>0.9984665382922034</v>
+        <v>1.017878649429903</v>
       </c>
       <c r="K16">
-        <v>1.008183458643661</v>
+        <v>1.024096381190615</v>
       </c>
       <c r="L16">
-        <v>0.9952111482067681</v>
+        <v>1.012722233698573</v>
       </c>
       <c r="M16">
-        <v>0.9892026454291089</v>
+        <v>1.006039568517921</v>
       </c>
       <c r="N16">
-        <v>0.9998844753022912</v>
+        <v>1.019324153864406</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9718936771820549</v>
+        <v>0.991081917984055</v>
       </c>
       <c r="D17">
-        <v>0.9958604922638444</v>
+        <v>1.011231594777599</v>
       </c>
       <c r="E17">
-        <v>0.9828339076881579</v>
+        <v>0.9997449104150348</v>
       </c>
       <c r="F17">
-        <v>0.9774344520450553</v>
+        <v>0.9936851270070334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032066999554224</v>
+        <v>1.038789691580939</v>
       </c>
       <c r="J17">
-        <v>1.000476496638198</v>
+        <v>1.018887171915057</v>
       </c>
       <c r="K17">
-        <v>1.009941493437452</v>
+        <v>1.025045518225386</v>
       </c>
       <c r="L17">
-        <v>0.9971497675445331</v>
+        <v>1.013757413754507</v>
       </c>
       <c r="M17">
-        <v>0.9918500538080267</v>
+        <v>1.007804792255029</v>
       </c>
       <c r="N17">
-        <v>1.001897288019682</v>
+        <v>1.020334108567168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9735338471503515</v>
+        <v>0.9921061871587696</v>
       </c>
       <c r="D18">
-        <v>0.9970856891889799</v>
+        <v>1.011979542568844</v>
       </c>
       <c r="E18">
-        <v>0.9841701853495095</v>
+        <v>1.000547471251338</v>
       </c>
       <c r="F18">
-        <v>0.9791886881444017</v>
+        <v>0.994919302941833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032579817569479</v>
+        <v>1.039110619760089</v>
       </c>
       <c r="J18">
-        <v>1.001635397161248</v>
+        <v>1.019470766381364</v>
       </c>
       <c r="K18">
-        <v>1.010954917765911</v>
+        <v>1.025594648479477</v>
       </c>
       <c r="L18">
-        <v>0.998267873402121</v>
+        <v>1.014356761315215</v>
       </c>
       <c r="M18">
-        <v>0.993376588947974</v>
+        <v>1.00882631594729</v>
       </c>
       <c r="N18">
-        <v>1.003057834314403</v>
+        <v>1.020918531804556</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9740900041335369</v>
+        <v>0.99245414767963</v>
       </c>
       <c r="D19">
-        <v>0.9975012449731901</v>
+        <v>1.012233712552304</v>
       </c>
       <c r="E19">
-        <v>0.9846234798077738</v>
+        <v>1.000820255077312</v>
       </c>
       <c r="F19">
-        <v>0.9797835787637172</v>
+        <v>0.9953385700195734</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032753496252802</v>
+        <v>1.03921948502713</v>
       </c>
       <c r="J19">
-        <v>1.002028315042861</v>
+        <v>1.019668976691164</v>
       </c>
       <c r="K19">
-        <v>1.011298474172633</v>
+        <v>1.025781136154898</v>
       </c>
       <c r="L19">
-        <v>0.9986470169229609</v>
+        <v>1.014560377359693</v>
       </c>
       <c r="M19">
-        <v>0.9938941702668191</v>
+        <v>1.009173275483603</v>
       </c>
       <c r="N19">
-        <v>1.003451310184476</v>
+        <v>1.021117023595732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9715904928541991</v>
+        <v>0.9908928952339841</v>
       </c>
       <c r="D20">
-        <v>0.9956340690102375</v>
+        <v>1.01109360414342</v>
       </c>
       <c r="E20">
-        <v>0.982586985862841</v>
+        <v>0.9995968702478845</v>
       </c>
       <c r="F20">
-        <v>0.9771102089374625</v>
+        <v>0.9934573656561586</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031972105724257</v>
+        <v>1.038730390650953</v>
       </c>
       <c r="J20">
-        <v>1.000262252418715</v>
+        <v>1.018779451368709</v>
       </c>
       <c r="K20">
-        <v>1.009754124950061</v>
+        <v>1.024944150954866</v>
       </c>
       <c r="L20">
-        <v>0.9969430922142215</v>
+        <v>1.01364681191213</v>
       </c>
       <c r="M20">
-        <v>0.9915678539343287</v>
+        <v>1.007616243337526</v>
       </c>
       <c r="N20">
-        <v>1.001682739548834</v>
+        <v>1.020226235045289</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9632391505228515</v>
+        <v>0.9857250698277328</v>
       </c>
       <c r="D21">
-        <v>0.9894039939479473</v>
+        <v>1.007325707450762</v>
       </c>
       <c r="E21">
-        <v>0.9757962667983908</v>
+        <v>0.9955575859668414</v>
       </c>
       <c r="F21">
-        <v>0.9681817643024899</v>
+        <v>0.9872299831283395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029346763568907</v>
+        <v>1.037100418290097</v>
       </c>
       <c r="J21">
-        <v>0.9943584946855296</v>
+        <v>1.015831986332052</v>
       </c>
       <c r="K21">
-        <v>1.004588930536863</v>
+        <v>1.022169608593099</v>
       </c>
       <c r="L21">
-        <v>0.9912511677722584</v>
+        <v>1.010623612858687</v>
       </c>
       <c r="M21">
-        <v>0.9837921013946987</v>
+        <v>1.002457394538228</v>
       </c>
       <c r="N21">
-        <v>0.9957705978024967</v>
+        <v>1.017274584270201</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9578024354194107</v>
+        <v>0.9824019270522825</v>
       </c>
       <c r="D22">
-        <v>0.9853557087840872</v>
+        <v>1.004907679985081</v>
       </c>
       <c r="E22">
-        <v>0.9713868175274966</v>
+        <v>0.9929682975485362</v>
       </c>
       <c r="F22">
-        <v>0.9623720953930993</v>
+        <v>0.9832246742053735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027626841120823</v>
+        <v>1.036043948836987</v>
       </c>
       <c r="J22">
-        <v>0.9905133220392937</v>
+        <v>1.013934431750338</v>
       </c>
       <c r="K22">
-        <v>1.00122296317125</v>
+        <v>1.020382537702619</v>
       </c>
       <c r="L22">
-        <v>0.9875472465644669</v>
+        <v>1.008680352816045</v>
       </c>
       <c r="M22">
-        <v>0.978727730036416</v>
+        <v>0.9991359429800778</v>
       </c>
       <c r="N22">
-        <v>0.9919199645700554</v>
+        <v>1.015374334943328</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9607030726066101</v>
+        <v>0.9841708211010752</v>
       </c>
       <c r="D23">
-        <v>0.9875148172444794</v>
+        <v>1.006194301813122</v>
       </c>
       <c r="E23">
-        <v>0.9737382666503134</v>
+        <v>0.994345776466388</v>
       </c>
       <c r="F23">
-        <v>0.965471470074884</v>
+        <v>0.9853567891016718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028545453561155</v>
+        <v>1.03660707434615</v>
       </c>
       <c r="J23">
-        <v>0.9925649663074163</v>
+        <v>1.014944687237478</v>
       </c>
       <c r="K23">
-        <v>1.003019080138374</v>
+        <v>1.021334047224996</v>
       </c>
       <c r="L23">
-        <v>0.9895232093881781</v>
+        <v>1.009714652748062</v>
       </c>
       <c r="M23">
-        <v>0.9814299320765623</v>
+        <v>1.000904336768178</v>
       </c>
       <c r="N23">
-        <v>0.9939745224083657</v>
+        <v>1.016386025109138</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9717275463679274</v>
+        <v>0.9909783302551076</v>
       </c>
       <c r="D24">
-        <v>0.9957364208375243</v>
+        <v>1.011155972033655</v>
       </c>
       <c r="E24">
-        <v>0.9826986026805978</v>
+        <v>0.9996637792432154</v>
       </c>
       <c r="F24">
-        <v>0.9772567810049234</v>
+        <v>0.9935603099320037</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032015005989223</v>
+        <v>1.038757196539187</v>
       </c>
       <c r="J24">
-        <v>1.000359101673741</v>
+        <v>1.018828140021692</v>
       </c>
       <c r="K24">
-        <v>1.009838825703689</v>
+        <v>1.024989968299283</v>
       </c>
       <c r="L24">
-        <v>0.9970365188993483</v>
+        <v>1.013696801868599</v>
       </c>
       <c r="M24">
-        <v>0.9916954222913998</v>
+        <v>1.007701465462096</v>
       </c>
       <c r="N24">
-        <v>1.00177972634091</v>
+        <v>1.020274992841744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9837943580311262</v>
+        <v>0.9985775858181929</v>
       </c>
       <c r="D25">
-        <v>1.00476075158902</v>
+        <v>1.016713172550709</v>
       </c>
       <c r="E25">
-        <v>0.9925478675463403</v>
+        <v>1.005632587345262</v>
       </c>
       <c r="F25">
-        <v>0.9901687504774471</v>
+        <v>1.002717162419007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035765490252924</v>
+        <v>1.041121330006527</v>
       </c>
       <c r="J25">
-        <v>1.008879691505102</v>
+        <v>1.023152914880479</v>
       </c>
       <c r="K25">
-        <v>1.017285609842237</v>
+        <v>1.029057462156781</v>
       </c>
       <c r="L25">
-        <v>1.005262980415176</v>
+        <v>1.01814408941406</v>
       </c>
       <c r="M25">
-        <v>1.002921625519129</v>
+        <v>1.01527344387161</v>
       </c>
       <c r="N25">
-        <v>1.010312416387157</v>
+        <v>1.024605909376889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00441783034934</v>
+        <v>1.002079051892459</v>
       </c>
       <c r="D2">
-        <v>1.020996721639522</v>
+        <v>1.018455829659046</v>
       </c>
       <c r="E2">
-        <v>1.010243755282915</v>
+        <v>1.008275253781798</v>
       </c>
       <c r="F2">
-        <v>1.009756468845619</v>
+        <v>1.025674813305719</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042908149453803</v>
+        <v>1.04222124579188</v>
       </c>
       <c r="J2">
-        <v>1.026467203032294</v>
+        <v>1.024197756199378</v>
       </c>
       <c r="K2">
-        <v>1.032171088055111</v>
+        <v>1.029663896569552</v>
       </c>
       <c r="L2">
-        <v>1.021562199460846</v>
+        <v>1.019620492584939</v>
       </c>
       <c r="M2">
-        <v>1.021081533569505</v>
+        <v>1.036787680170338</v>
       </c>
       <c r="N2">
-        <v>1.027924904198035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012014034739869</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037687366128172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008539924362561</v>
+        <v>1.005399365683205</v>
       </c>
       <c r="D3">
-        <v>1.024026456806075</v>
+        <v>1.02071357862393</v>
       </c>
       <c r="E3">
-        <v>1.013511368029528</v>
+        <v>1.010842840070185</v>
       </c>
       <c r="F3">
-        <v>1.014727202778558</v>
+        <v>1.028225889077354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04415130350188</v>
+        <v>1.042970936319616</v>
       </c>
       <c r="J3">
-        <v>1.028800459115601</v>
+        <v>1.025743912997228</v>
       </c>
       <c r="K3">
-        <v>1.034360874114798</v>
+        <v>1.031088111542954</v>
       </c>
       <c r="L3">
-        <v>1.023974238700448</v>
+        <v>1.021338839365902</v>
       </c>
       <c r="M3">
-        <v>1.025175051301744</v>
+        <v>1.038509916247648</v>
       </c>
       <c r="N3">
-        <v>1.030261473772607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012534867765094</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03905040455697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011155336999249</v>
+        <v>1.00751193686952</v>
       </c>
       <c r="D4">
-        <v>1.025951430153899</v>
+        <v>1.022152975728204</v>
       </c>
       <c r="E4">
-        <v>1.015590383550531</v>
+        <v>1.012482093924146</v>
       </c>
       <c r="F4">
-        <v>1.017882500807244</v>
+        <v>1.029855748106922</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044931544882805</v>
+        <v>1.043440118710298</v>
       </c>
       <c r="J4">
-        <v>1.030277929499951</v>
+        <v>1.026725419093841</v>
       </c>
       <c r="K4">
-        <v>1.035746417303549</v>
+        <v>1.031991188365615</v>
       </c>
       <c r="L4">
-        <v>1.025504218478237</v>
+        <v>1.022432169595932</v>
       </c>
       <c r="M4">
-        <v>1.027769786238582</v>
+        <v>1.039606714339791</v>
       </c>
       <c r="N4">
-        <v>1.031741042334371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01286539087886</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039918447934159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012242854254924</v>
+        <v>1.008391689486951</v>
       </c>
       <c r="D5">
-        <v>1.026752447525597</v>
+        <v>1.022753051600373</v>
       </c>
       <c r="E5">
-        <v>1.016456205955363</v>
+        <v>1.013166057898524</v>
       </c>
       <c r="F5">
-        <v>1.019194902705978</v>
+        <v>1.030536061595468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045253904189964</v>
+        <v>1.043633599555075</v>
       </c>
       <c r="J5">
-        <v>1.030891545017207</v>
+        <v>1.027133591928313</v>
       </c>
       <c r="K5">
-        <v>1.0363215865627</v>
+        <v>1.032366493089244</v>
       </c>
       <c r="L5">
-        <v>1.026140269912636</v>
+        <v>1.022887453217846</v>
       </c>
       <c r="M5">
-        <v>1.028848118675628</v>
+        <v>1.040063677133745</v>
       </c>
       <c r="N5">
-        <v>1.032355529256044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01300281706668</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040280103548323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012424761009197</v>
+        <v>1.008538919135519</v>
       </c>
       <c r="D6">
-        <v>1.026886465634098</v>
+        <v>1.02285351401739</v>
       </c>
       <c r="E6">
-        <v>1.016601108279622</v>
+        <v>1.013280598313329</v>
       </c>
       <c r="F6">
-        <v>1.019414450044279</v>
+        <v>1.030650006355185</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045307701845513</v>
+        <v>1.043665866490108</v>
       </c>
       <c r="J6">
-        <v>1.030994139404305</v>
+        <v>1.027201867324814</v>
       </c>
       <c r="K6">
-        <v>1.036417736889991</v>
+        <v>1.032429255567468</v>
       </c>
       <c r="L6">
-        <v>1.026246652399758</v>
+        <v>1.022963644663613</v>
       </c>
       <c r="M6">
-        <v>1.029028455287631</v>
+        <v>1.040140163317676</v>
       </c>
       <c r="N6">
-        <v>1.03245826933894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013025802857953</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040340637250585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0111699150857</v>
+        <v>1.007523724776926</v>
       </c>
       <c r="D7">
-        <v>1.025962165447304</v>
+        <v>1.022161013664333</v>
       </c>
       <c r="E7">
-        <v>1.015601984570252</v>
+        <v>1.012491253270053</v>
       </c>
       <c r="F7">
-        <v>1.017900091833293</v>
+        <v>1.029864857511588</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044935874312129</v>
+        <v>1.043442718736667</v>
       </c>
       <c r="J7">
-        <v>1.030286157897004</v>
+        <v>1.026730890500291</v>
       </c>
       <c r="K7">
-        <v>1.035754131216495</v>
+        <v>1.031996220193104</v>
       </c>
       <c r="L7">
-        <v>1.025512745253929</v>
+        <v>1.022438270102677</v>
       </c>
       <c r="M7">
-        <v>1.027784243489947</v>
+        <v>1.039612836422396</v>
       </c>
       <c r="N7">
-        <v>1.031749282416692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012867233132589</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039923293155963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005821903570424</v>
+        <v>1.003208735067213</v>
       </c>
       <c r="D8">
-        <v>1.022028132688555</v>
+        <v>1.019223365989605</v>
       </c>
       <c r="E8">
-        <v>1.011355543939576</v>
+        <v>1.009147642785966</v>
       </c>
       <c r="F8">
-        <v>1.011449337576758</v>
+        <v>1.026541349844122</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043333362714652</v>
+        <v>1.04247793209676</v>
       </c>
       <c r="J8">
-        <v>1.027262562214617</v>
+        <v>1.024724266431945</v>
       </c>
       <c r="K8">
-        <v>1.032917762266301</v>
+        <v>1.030149091321728</v>
       </c>
       <c r="L8">
-        <v>1.022383863144081</v>
+        <v>1.02020511291052</v>
       </c>
       <c r="M8">
-        <v>1.022476421957196</v>
+        <v>1.037373413910305</v>
       </c>
       <c r="N8">
-        <v>1.028721392881625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012191413928402</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038150936778731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9959812870339443</v>
+        <v>0.9953199455063496</v>
       </c>
       <c r="D9">
-        <v>1.014812407506439</v>
+        <v>1.013877178899525</v>
       </c>
       <c r="E9">
-        <v>1.003589430153574</v>
+        <v>1.003080409719262</v>
       </c>
       <c r="F9">
-        <v>0.9995885607254306</v>
+        <v>1.020519864219712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040318284007216</v>
+        <v>1.04065372791494</v>
       </c>
       <c r="J9">
-        <v>1.021676758931952</v>
+        <v>1.021039057931163</v>
       </c>
       <c r="K9">
-        <v>1.027669649570911</v>
+        <v>1.02674905048394</v>
       </c>
       <c r="L9">
-        <v>1.016624538565328</v>
+        <v>1.016123706348654</v>
       </c>
       <c r="M9">
-        <v>1.012688316773653</v>
+        <v>1.033288568031246</v>
       </c>
       <c r="N9">
-        <v>1.023127657117598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010949505604372</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034918037223919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9891116591341831</v>
+        <v>0.9899056668192663</v>
       </c>
       <c r="D10">
-        <v>1.009793858972303</v>
+        <v>1.010236600038759</v>
       </c>
       <c r="E10">
-        <v>0.9982028596318435</v>
+        <v>0.9989550896937301</v>
       </c>
       <c r="F10">
-        <v>0.9913110404516836</v>
+        <v>1.016601674742659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038170443709589</v>
+        <v>1.039388459165733</v>
       </c>
       <c r="J10">
-        <v>1.017764038426997</v>
+        <v>1.018525586973137</v>
       </c>
       <c r="K10">
-        <v>1.023988505518495</v>
+        <v>1.024423456930298</v>
       </c>
       <c r="L10">
-        <v>1.012604637992356</v>
+        <v>1.013343235982657</v>
       </c>
       <c r="M10">
-        <v>1.005838969165114</v>
+        <v>1.03067751375541</v>
       </c>
       <c r="N10">
-        <v>1.01920938010073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010105015939908</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03290333235406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9860566936921475</v>
+        <v>0.987917665353638</v>
       </c>
       <c r="D11">
-        <v>1.007567220178427</v>
+        <v>1.008982695475789</v>
       </c>
       <c r="E11">
-        <v>0.9958163248959815</v>
+        <v>0.9974990035285357</v>
       </c>
       <c r="F11">
-        <v>0.9876296380247879</v>
+        <v>1.016560067068891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037205500864357</v>
+        <v>1.039115313193889</v>
       </c>
       <c r="J11">
-        <v>1.016021259016716</v>
+        <v>1.017801867429375</v>
       </c>
       <c r="K11">
-        <v>1.022347826982531</v>
+        <v>1.023737176472966</v>
       </c>
       <c r="L11">
-        <v>1.010817572844849</v>
+        <v>1.012468239606723</v>
       </c>
       <c r="M11">
-        <v>1.002788673623289</v>
+        <v>1.031176299083758</v>
       </c>
       <c r="N11">
-        <v>1.017464125743787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009887617183225</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033736675106104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9849092266672544</v>
+        <v>0.9873114045899132</v>
       </c>
       <c r="D12">
-        <v>1.00673171410088</v>
+        <v>1.008633014249436</v>
       </c>
       <c r="E12">
-        <v>0.994921320013888</v>
+        <v>0.9970783684421197</v>
       </c>
       <c r="F12">
-        <v>0.9862467431577923</v>
+        <v>1.017118285197754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03684162851777</v>
+        <v>1.039111811143118</v>
       </c>
       <c r="J12">
-        <v>1.01536627713162</v>
+        <v>1.017662648536121</v>
       </c>
       <c r="K12">
-        <v>1.021731071585047</v>
+        <v>1.023596667466713</v>
       </c>
       <c r="L12">
-        <v>1.010146470646286</v>
+        <v>1.012261757176834</v>
       </c>
       <c r="M12">
-        <v>1.001642263953799</v>
+        <v>1.031924713649828</v>
       </c>
       <c r="N12">
-        <v>1.016808213709287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009862460012093</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034656453451418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9851559484880144</v>
+        <v>0.9877267767346969</v>
       </c>
       <c r="D13">
-        <v>1.006911321061399</v>
+        <v>1.008954016362453</v>
       </c>
       <c r="E13">
-        <v>0.9951136949029876</v>
+        <v>0.9974232062606589</v>
       </c>
       <c r="F13">
-        <v>0.9865440927607712</v>
+        <v>1.018194860450878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036919930408457</v>
+        <v>1.039319248388618</v>
       </c>
       <c r="J13">
-        <v>1.01550712426862</v>
+        <v>1.017965241572744</v>
       </c>
       <c r="K13">
-        <v>1.021863704900598</v>
+        <v>1.023868194106979</v>
       </c>
       <c r="L13">
-        <v>1.010290760564237</v>
+        <v>1.012555740170152</v>
       </c>
       <c r="M13">
-        <v>1.00188879064192</v>
+        <v>1.03293869221381</v>
       </c>
       <c r="N13">
-        <v>1.016949260865376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009983937927299</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03573578980099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9859621069944591</v>
+        <v>0.9884761349024122</v>
       </c>
       <c r="D14">
-        <v>1.007498331332377</v>
+        <v>1.009478817529653</v>
       </c>
       <c r="E14">
-        <v>0.9957425201803657</v>
+        <v>0.9980076932624937</v>
       </c>
       <c r="F14">
-        <v>0.9875156480207792</v>
+        <v>1.019169849833727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037175535462481</v>
+        <v>1.039556385595819</v>
       </c>
       <c r="J14">
-        <v>1.015967275843987</v>
+        <v>1.018372656295932</v>
       </c>
       <c r="K14">
-        <v>1.022296997304762</v>
+        <v>1.024240901446483</v>
       </c>
       <c r="L14">
-        <v>1.010762250379776</v>
+        <v>1.012984297957443</v>
       </c>
       <c r="M14">
-        <v>1.002694188509879</v>
+        <v>1.033755591914321</v>
       </c>
       <c r="N14">
-        <v>1.017410065908761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01013383482263</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036555307019986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9864571028207313</v>
+        <v>0.9888851034089259</v>
       </c>
       <c r="D15">
-        <v>1.007858878324851</v>
+        <v>1.009757015940289</v>
       </c>
       <c r="E15">
-        <v>0.9961288159091279</v>
+        <v>0.9983207951531117</v>
       </c>
       <c r="F15">
-        <v>0.9881121802435344</v>
+        <v>1.019551342889532</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037332293705842</v>
+        <v>1.039664615140739</v>
       </c>
       <c r="J15">
-        <v>1.016249767937036</v>
+        <v>1.018573761531616</v>
       </c>
       <c r="K15">
-        <v>1.022562981398296</v>
+        <v>1.024426326846725</v>
       </c>
       <c r="L15">
-        <v>1.01105177230711</v>
+        <v>1.013202344296805</v>
       </c>
       <c r="M15">
-        <v>1.003188624049155</v>
+        <v>1.034043800178384</v>
       </c>
       <c r="N15">
-        <v>1.017692959172985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010204200574208</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036820726259389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9893126599767355</v>
+        <v>0.9910853856561379</v>
       </c>
       <c r="D16">
-        <v>1.009940472660851</v>
+        <v>1.01122559260073</v>
       </c>
       <c r="E16">
-        <v>0.9983600715927611</v>
+        <v>0.9999851078312455</v>
       </c>
       <c r="F16">
-        <v>0.9915532436771933</v>
+        <v>1.021047962904051</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038233731074159</v>
+        <v>1.040168867348331</v>
       </c>
       <c r="J16">
-        <v>1.017878649429903</v>
+        <v>1.019579281361558</v>
       </c>
       <c r="K16">
-        <v>1.024096381190615</v>
+        <v>1.025358989616592</v>
       </c>
       <c r="L16">
-        <v>1.012722233698573</v>
+        <v>1.014317952630372</v>
       </c>
       <c r="M16">
-        <v>1.006039568517921</v>
+        <v>1.03501171857026</v>
       </c>
       <c r="N16">
-        <v>1.019324153864406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010538197909835</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037546959267957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.991081917984055</v>
+        <v>0.9923856132175123</v>
       </c>
       <c r="D17">
-        <v>1.011231594777599</v>
+        <v>1.012081702897933</v>
       </c>
       <c r="E17">
-        <v>0.9997449104150348</v>
+        <v>1.000961123433892</v>
       </c>
       <c r="F17">
-        <v>0.9936851270070334</v>
+        <v>1.02168359552617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038789691580939</v>
+        <v>1.040431315568247</v>
       </c>
       <c r="J17">
-        <v>1.018887171915057</v>
+        <v>1.020139578876719</v>
       </c>
       <c r="K17">
-        <v>1.025045518225386</v>
+        <v>1.025881161113767</v>
       </c>
       <c r="L17">
-        <v>1.013757413754507</v>
+        <v>1.014952321635373</v>
       </c>
       <c r="M17">
-        <v>1.007804792255029</v>
+        <v>1.03532182234715</v>
       </c>
       <c r="N17">
-        <v>1.020334108567168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010716530435504</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037662707872476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9921061871587696</v>
+        <v>0.9930204316694006</v>
       </c>
       <c r="D18">
-        <v>1.011979542568844</v>
+        <v>1.012475512104688</v>
       </c>
       <c r="E18">
-        <v>1.000547471251338</v>
+        <v>1.001421241428036</v>
       </c>
       <c r="F18">
-        <v>0.994919302941833</v>
+        <v>1.02153092352602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039110619760089</v>
+        <v>1.040495698196378</v>
       </c>
       <c r="J18">
-        <v>1.019470766381364</v>
+        <v>1.020349736802296</v>
       </c>
       <c r="K18">
-        <v>1.025594648479477</v>
+        <v>1.026082321420448</v>
       </c>
       <c r="L18">
-        <v>1.014356761315215</v>
+        <v>1.015215487406915</v>
       </c>
       <c r="M18">
-        <v>1.00882631594729</v>
+        <v>1.034988074064604</v>
       </c>
       <c r="N18">
-        <v>1.020918531804556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010770691660877</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037160437232753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.99245414767963</v>
+        <v>0.9930325147223796</v>
       </c>
       <c r="D19">
-        <v>1.012233712552304</v>
+        <v>1.012433120615078</v>
       </c>
       <c r="E19">
-        <v>1.000820255077312</v>
+        <v>1.001396428916908</v>
       </c>
       <c r="F19">
-        <v>0.9953385700195734</v>
+        <v>1.020604516517387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03921948502713</v>
+        <v>1.040368800795505</v>
       </c>
       <c r="J19">
-        <v>1.019668976691164</v>
+        <v>1.020225170861869</v>
       </c>
       <c r="K19">
-        <v>1.025781136154898</v>
+        <v>1.025977227253593</v>
       </c>
       <c r="L19">
-        <v>1.014560377359693</v>
+        <v>1.01512668737097</v>
       </c>
       <c r="M19">
-        <v>1.009173275483603</v>
+        <v>1.034014132122238</v>
       </c>
       <c r="N19">
-        <v>1.021117023595732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010708076974749</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036063507751851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908928952339841</v>
+        <v>0.99130834307009</v>
       </c>
       <c r="D20">
-        <v>1.01109360414342</v>
+        <v>1.011178685948334</v>
       </c>
       <c r="E20">
-        <v>0.9995968702478845</v>
+        <v>1.000021613198605</v>
       </c>
       <c r="F20">
-        <v>0.9934573656561586</v>
+        <v>1.017622062188089</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038730390650953</v>
+        <v>1.039720077249404</v>
       </c>
       <c r="J20">
-        <v>1.018779451368709</v>
+        <v>1.019178474479727</v>
       </c>
       <c r="K20">
-        <v>1.024944150954866</v>
+        <v>1.025027778968939</v>
       </c>
       <c r="L20">
-        <v>1.01364681191213</v>
+        <v>1.014064082575039</v>
       </c>
       <c r="M20">
-        <v>1.007616243337526</v>
+        <v>1.0313619681626</v>
       </c>
       <c r="N20">
-        <v>1.020226235045289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010324525115512</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033434389049993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9857250698277328</v>
+        <v>0.9871722642901688</v>
       </c>
       <c r="D21">
-        <v>1.007325707450762</v>
+        <v>1.008389654084569</v>
       </c>
       <c r="E21">
-        <v>0.9955575859668414</v>
+        <v>0.9968724078167662</v>
       </c>
       <c r="F21">
-        <v>0.9872299831283395</v>
+        <v>1.014370541064976</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037100418290097</v>
+        <v>1.038701660349164</v>
       </c>
       <c r="J21">
-        <v>1.015831986332052</v>
+        <v>1.017216273724873</v>
       </c>
       <c r="K21">
-        <v>1.022169608593099</v>
+        <v>1.023213806242513</v>
       </c>
       <c r="L21">
-        <v>1.010623612858687</v>
+        <v>1.011913276643935</v>
       </c>
       <c r="M21">
-        <v>1.002457394538228</v>
+        <v>1.029084679576078</v>
       </c>
       <c r="N21">
-        <v>1.017274584270201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009660533957847</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031590907474953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9824019270522825</v>
+        <v>0.9845494347082541</v>
       </c>
       <c r="D22">
-        <v>1.004907679985081</v>
+        <v>1.006630709263208</v>
       </c>
       <c r="E22">
-        <v>0.9929682975485362</v>
+        <v>0.9948860408363437</v>
       </c>
       <c r="F22">
-        <v>0.9832246742053735</v>
+        <v>1.012405424453216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036043948836987</v>
+        <v>1.038060865677351</v>
       </c>
       <c r="J22">
-        <v>1.013934431750338</v>
+        <v>1.015983073060407</v>
       </c>
       <c r="K22">
-        <v>1.020382537702619</v>
+        <v>1.022071945078157</v>
       </c>
       <c r="L22">
-        <v>1.008680352816045</v>
+        <v>1.010559491581447</v>
       </c>
       <c r="M22">
-        <v>0.9991359429800778</v>
+        <v>1.027735069220322</v>
       </c>
       <c r="N22">
-        <v>1.015374334943328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009244622141263</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030522767128732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9841708211010752</v>
+        <v>0.9859444841439771</v>
       </c>
       <c r="D23">
-        <v>1.006194301813122</v>
+        <v>1.007565806166917</v>
       </c>
       <c r="E23">
-        <v>0.994345776466388</v>
+        <v>0.9959418467702188</v>
       </c>
       <c r="F23">
-        <v>0.9853567891016718</v>
+        <v>1.013449786961356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03660707434615</v>
+        <v>1.038402386695173</v>
       </c>
       <c r="J23">
-        <v>1.014944687237478</v>
+        <v>1.016639127786592</v>
       </c>
       <c r="K23">
-        <v>1.021334047224996</v>
+        <v>1.022679483931614</v>
       </c>
       <c r="L23">
-        <v>1.009714652748062</v>
+        <v>1.011279440803157</v>
       </c>
       <c r="M23">
-        <v>1.000904336768178</v>
+        <v>1.028452675174886</v>
       </c>
       <c r="N23">
-        <v>1.016386025109138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009465889186514</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031090711902423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909783302551076</v>
+        <v>0.991335746325185</v>
       </c>
       <c r="D24">
-        <v>1.011155972033655</v>
+        <v>1.01118939501214</v>
       </c>
       <c r="E24">
-        <v>0.9996637792432154</v>
+        <v>1.000037525569307</v>
       </c>
       <c r="F24">
-        <v>0.9935603099320037</v>
+        <v>1.01750426809266</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038757196539187</v>
+        <v>1.039706901222623</v>
       </c>
       <c r="J24">
-        <v>1.018828140021692</v>
+        <v>1.019171447821426</v>
       </c>
       <c r="K24">
-        <v>1.024989968299283</v>
+        <v>1.025022820967342</v>
       </c>
       <c r="L24">
-        <v>1.013696801868599</v>
+        <v>1.014063982248646</v>
       </c>
       <c r="M24">
-        <v>1.007701465462096</v>
+        <v>1.031230807480312</v>
       </c>
       <c r="N24">
-        <v>1.020274992841744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01031985060874</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033289443093725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9985775858181929</v>
+        <v>0.997394694198985</v>
       </c>
       <c r="D25">
-        <v>1.016713172550709</v>
+        <v>1.015280115151545</v>
       </c>
       <c r="E25">
-        <v>1.005632587345262</v>
+        <v>1.004670554276602</v>
       </c>
       <c r="F25">
-        <v>1.002717162419007</v>
+        <v>1.022096890993256</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041121330006527</v>
+        <v>1.041140362653721</v>
       </c>
       <c r="J25">
-        <v>1.023152914880479</v>
+        <v>1.022010056515939</v>
       </c>
       <c r="K25">
-        <v>1.029057462156781</v>
+        <v>1.027645769013393</v>
       </c>
       <c r="L25">
-        <v>1.01814408941406</v>
+        <v>1.017196796005828</v>
       </c>
       <c r="M25">
-        <v>1.01527344387161</v>
+        <v>1.034361598888647</v>
       </c>
       <c r="N25">
-        <v>1.024605909376889</v>
+        <v>1.011276808317456</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035767275336943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002079051892459</v>
+        <v>1.002297639051354</v>
       </c>
       <c r="D2">
-        <v>1.018455829659046</v>
+        <v>1.018450691379153</v>
       </c>
       <c r="E2">
-        <v>1.008275253781798</v>
+        <v>1.008467271733882</v>
       </c>
       <c r="F2">
-        <v>1.025674813305719</v>
+        <v>1.025761364048239</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04222124579188</v>
+        <v>1.042271814152829</v>
       </c>
       <c r="J2">
-        <v>1.024197756199378</v>
+        <v>1.024409844637465</v>
       </c>
       <c r="K2">
-        <v>1.029663896569552</v>
+        <v>1.02965882665384</v>
       </c>
       <c r="L2">
-        <v>1.019620492584939</v>
+        <v>1.019809891052836</v>
       </c>
       <c r="M2">
-        <v>1.036787680170338</v>
+        <v>1.036873099713065</v>
       </c>
       <c r="N2">
-        <v>1.012014034739869</v>
+        <v>1.013702665524799</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037687366128172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03775497023098</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020016951708165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005399365683205</v>
+        <v>1.005499682789218</v>
       </c>
       <c r="D3">
-        <v>1.02071357862393</v>
+        <v>1.020537879337494</v>
       </c>
       <c r="E3">
-        <v>1.010842840070185</v>
+        <v>1.010932199706795</v>
       </c>
       <c r="F3">
-        <v>1.028225889077354</v>
+        <v>1.028255848052339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042970936319616</v>
+        <v>1.042941278160581</v>
       </c>
       <c r="J3">
-        <v>1.025743912997228</v>
+        <v>1.025841535505235</v>
       </c>
       <c r="K3">
-        <v>1.031088111542954</v>
+        <v>1.030914548834102</v>
       </c>
       <c r="L3">
-        <v>1.021338839365902</v>
+        <v>1.021427086114953</v>
       </c>
       <c r="M3">
-        <v>1.038509916247648</v>
+        <v>1.038539517570233</v>
       </c>
       <c r="N3">
-        <v>1.012534867765094</v>
+        <v>1.01408611853609</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03905040455697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039073832065941</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020253211717997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00751193686952</v>
+        <v>1.007537737565563</v>
       </c>
       <c r="D4">
-        <v>1.022152975728204</v>
+        <v>1.021869227661786</v>
       </c>
       <c r="E4">
-        <v>1.012482093924146</v>
+        <v>1.012506672592848</v>
       </c>
       <c r="F4">
-        <v>1.029855748106922</v>
+        <v>1.029850053415048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043440118710298</v>
+        <v>1.043359608176069</v>
       </c>
       <c r="J4">
-        <v>1.026725419093841</v>
+        <v>1.026750573037117</v>
       </c>
       <c r="K4">
-        <v>1.031991188365615</v>
+        <v>1.031710685200324</v>
       </c>
       <c r="L4">
-        <v>1.022432169595932</v>
+        <v>1.022456460612719</v>
       </c>
       <c r="M4">
-        <v>1.039606714339791</v>
+        <v>1.039601083555855</v>
       </c>
       <c r="N4">
-        <v>1.01286539087886</v>
+        <v>1.014329537826196</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039918447934159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039913991542593</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020400501310549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008391689486951</v>
+        <v>1.008386625066683</v>
       </c>
       <c r="D5">
-        <v>1.022753051600373</v>
+        <v>1.022424416338034</v>
       </c>
       <c r="E5">
-        <v>1.013166057898524</v>
+        <v>1.013163782549757</v>
       </c>
       <c r="F5">
-        <v>1.030536061595468</v>
+        <v>1.030515599757888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043633599555075</v>
+        <v>1.043531956577682</v>
       </c>
       <c r="J5">
-        <v>1.027133591928313</v>
+        <v>1.027128650715151</v>
       </c>
       <c r="K5">
-        <v>1.032366493089244</v>
+        <v>1.032041517172295</v>
       </c>
       <c r="L5">
-        <v>1.022887453217846</v>
+        <v>1.022885203789591</v>
       </c>
       <c r="M5">
-        <v>1.040063677133745</v>
+        <v>1.040043438849023</v>
       </c>
       <c r="N5">
-        <v>1.01300281706668</v>
+        <v>1.014430765290778</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040280103548323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040264086297837</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020461100149382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008538919135519</v>
+        <v>1.008528698826117</v>
       </c>
       <c r="D6">
-        <v>1.02285351401739</v>
+        <v>1.022517372952826</v>
       </c>
       <c r="E6">
-        <v>1.013280598313329</v>
+        <v>1.013273835935461</v>
       </c>
       <c r="F6">
-        <v>1.030650006355185</v>
+        <v>1.030627077782219</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043665866490108</v>
+        <v>1.043560689482162</v>
       </c>
       <c r="J6">
-        <v>1.027201867324814</v>
+        <v>1.027191894394936</v>
       </c>
       <c r="K6">
-        <v>1.032429255567468</v>
+        <v>1.032096840516463</v>
       </c>
       <c r="L6">
-        <v>1.022963644663613</v>
+        <v>1.022956958970002</v>
       </c>
       <c r="M6">
-        <v>1.040140163317676</v>
+        <v>1.040117484109215</v>
       </c>
       <c r="N6">
-        <v>1.013025802857953</v>
+        <v>1.01444769751881</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040340637250585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040322688173492</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020471197901023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007523724776926</v>
+        <v>1.007555713554555</v>
       </c>
       <c r="D7">
-        <v>1.022161013664333</v>
+        <v>1.021881757345559</v>
       </c>
       <c r="E7">
-        <v>1.012491253270053</v>
+        <v>1.012521338619145</v>
       </c>
       <c r="F7">
-        <v>1.029864857511588</v>
+        <v>1.02986195604195</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043442718736667</v>
+        <v>1.043365164485126</v>
       </c>
       <c r="J7">
-        <v>1.026730890500291</v>
+        <v>1.026762077731813</v>
       </c>
       <c r="K7">
-        <v>1.031996220193104</v>
+        <v>1.031720156262089</v>
       </c>
       <c r="L7">
-        <v>1.022438270102677</v>
+        <v>1.022468003481643</v>
       </c>
       <c r="M7">
-        <v>1.039612836422396</v>
+        <v>1.039609967502448</v>
       </c>
       <c r="N7">
-        <v>1.012867233132589</v>
+        <v>1.014358390591741</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039923293155963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039921022596358</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020402785567657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003208735067213</v>
+        <v>1.003407233863778</v>
       </c>
       <c r="D8">
-        <v>1.019223365989605</v>
+        <v>1.019175802077867</v>
       </c>
       <c r="E8">
-        <v>1.009147642785966</v>
+        <v>1.009322680600281</v>
       </c>
       <c r="F8">
-        <v>1.026541349844122</v>
+        <v>1.026617804866804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04247793209676</v>
+        <v>1.042511153687937</v>
       </c>
       <c r="J8">
-        <v>1.024724266431945</v>
+        <v>1.024917059079112</v>
       </c>
       <c r="K8">
-        <v>1.030149091321728</v>
+        <v>1.030102141673704</v>
       </c>
       <c r="L8">
-        <v>1.02020511291052</v>
+        <v>1.020377833861134</v>
       </c>
       <c r="M8">
-        <v>1.037373413910305</v>
+        <v>1.037448899202229</v>
       </c>
       <c r="N8">
-        <v>1.012191413928402</v>
+        <v>1.01391684250287</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038150936778731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038210678519182</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02010251013046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9953199455063496</v>
+        <v>0.9958070523991693</v>
       </c>
       <c r="D9">
-        <v>1.013877178899525</v>
+        <v>1.014240121038066</v>
       </c>
       <c r="E9">
-        <v>1.003080409719262</v>
+        <v>1.003505319899524</v>
       </c>
       <c r="F9">
-        <v>1.020519864219712</v>
+        <v>1.020734402160686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04065372791494</v>
+        <v>1.04088023320208</v>
       </c>
       <c r="J9">
-        <v>1.021039057931163</v>
+        <v>1.021508748275735</v>
       </c>
       <c r="K9">
-        <v>1.02674905048394</v>
+        <v>1.027106311123126</v>
       </c>
       <c r="L9">
-        <v>1.016123706348654</v>
+        <v>1.016541780592854</v>
       </c>
       <c r="M9">
-        <v>1.033288568031246</v>
+        <v>1.033499802549978</v>
       </c>
       <c r="N9">
-        <v>1.010949505604372</v>
+        <v>1.013013173913987</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034918037223919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03508521647079</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019525151079306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9899056668192663</v>
+        <v>0.9906231561436857</v>
       </c>
       <c r="D10">
-        <v>1.010236600038759</v>
+        <v>1.010904644042448</v>
       </c>
       <c r="E10">
-        <v>0.9989550896937301</v>
+        <v>0.9995792228284004</v>
       </c>
       <c r="F10">
-        <v>1.016601674742659</v>
+        <v>1.016925674052011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039388459165733</v>
+        <v>1.039761976747436</v>
       </c>
       <c r="J10">
-        <v>1.018525586973137</v>
+        <v>1.019213808762575</v>
       </c>
       <c r="K10">
-        <v>1.024423456930298</v>
+        <v>1.025079764000979</v>
       </c>
       <c r="L10">
-        <v>1.013343235982657</v>
+        <v>1.013956078695307</v>
       </c>
       <c r="M10">
-        <v>1.03067751375541</v>
+        <v>1.030995910043374</v>
       </c>
       <c r="N10">
-        <v>1.010105015939908</v>
+        <v>1.012516876689914</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03290333235406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033155308396936</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019127903270025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.987917665353638</v>
+        <v>0.9887520700093357</v>
       </c>
       <c r="D11">
-        <v>1.008982695475789</v>
+        <v>1.009780198351502</v>
       </c>
       <c r="E11">
-        <v>0.9974990035285357</v>
+        <v>0.9982240616525577</v>
       </c>
       <c r="F11">
-        <v>1.016560067068891</v>
+        <v>1.016937163849233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039115313193889</v>
+        <v>1.039555067080778</v>
       </c>
       <c r="J11">
-        <v>1.017801867429375</v>
+        <v>1.018600379701305</v>
       </c>
       <c r="K11">
-        <v>1.023737176472966</v>
+        <v>1.024520001650465</v>
       </c>
       <c r="L11">
-        <v>1.012468239606723</v>
+        <v>1.013179547463279</v>
       </c>
       <c r="M11">
-        <v>1.031176299083758</v>
+        <v>1.031546585704058</v>
       </c>
       <c r="N11">
-        <v>1.009887617183225</v>
+        <v>1.012599353215449</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033736675106104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034029567482489</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019048180845208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9873114045899132</v>
+        <v>0.9881817071001153</v>
       </c>
       <c r="D12">
-        <v>1.008633014249436</v>
+        <v>1.009466987252146</v>
       </c>
       <c r="E12">
-        <v>0.9970783684421197</v>
+        <v>0.9978338162590434</v>
       </c>
       <c r="F12">
-        <v>1.017118285197754</v>
+        <v>1.017510740151504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039111811143118</v>
+        <v>1.039570088646806</v>
       </c>
       <c r="J12">
-        <v>1.017662648536121</v>
+        <v>1.018494799038503</v>
       </c>
       <c r="K12">
-        <v>1.023596667466713</v>
+        <v>1.024415034788059</v>
       </c>
       <c r="L12">
-        <v>1.012261757176834</v>
+        <v>1.013002634934336</v>
       </c>
       <c r="M12">
-        <v>1.031924713649828</v>
+        <v>1.032309979367577</v>
       </c>
       <c r="N12">
-        <v>1.009862460012093</v>
+        <v>1.012687990113354</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034656453451418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034961090083642</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019049360400836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9877267767346969</v>
+        <v>0.9885638340272814</v>
       </c>
       <c r="D13">
-        <v>1.008954016362453</v>
+        <v>1.009748225497702</v>
       </c>
       <c r="E13">
-        <v>0.9974232062606589</v>
+        <v>0.99814885418997</v>
       </c>
       <c r="F13">
-        <v>1.018194860450878</v>
+        <v>1.018570716743582</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039319248388618</v>
+        <v>1.039756334576375</v>
       </c>
       <c r="J13">
-        <v>1.017965241572744</v>
+        <v>1.018765781076733</v>
       </c>
       <c r="K13">
-        <v>1.023868194106979</v>
+        <v>1.024647602988651</v>
       </c>
       <c r="L13">
-        <v>1.012555740170152</v>
+        <v>1.013267451932478</v>
       </c>
       <c r="M13">
-        <v>1.03293869221381</v>
+        <v>1.033307705081521</v>
       </c>
       <c r="N13">
-        <v>1.009983937927299</v>
+        <v>1.012751938919805</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03573578980099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036027501272511</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019112251761807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9884761349024122</v>
+        <v>0.9892594263692349</v>
       </c>
       <c r="D14">
-        <v>1.009478817529653</v>
+        <v>1.010211552674208</v>
       </c>
       <c r="E14">
-        <v>0.9980076932624937</v>
+        <v>0.9986860366095041</v>
       </c>
       <c r="F14">
-        <v>1.019169849833727</v>
+        <v>1.019520133657078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039556385595819</v>
+        <v>1.039961248983317</v>
       </c>
       <c r="J14">
-        <v>1.018372656295932</v>
+        <v>1.019122257604298</v>
       </c>
       <c r="K14">
-        <v>1.024240901446483</v>
+        <v>1.024960149415198</v>
       </c>
       <c r="L14">
-        <v>1.012984297957443</v>
+        <v>1.013649776423199</v>
       </c>
       <c r="M14">
-        <v>1.033755591914321</v>
+        <v>1.034099583397773</v>
       </c>
       <c r="N14">
-        <v>1.01013383482263</v>
+        <v>1.012785536710443</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036555307019986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036827201799492</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019183403574155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9888851034089259</v>
+        <v>0.9896407003326854</v>
       </c>
       <c r="D15">
-        <v>1.009757015940289</v>
+        <v>1.010458333108245</v>
       </c>
       <c r="E15">
-        <v>0.9983207951531117</v>
+        <v>0.9989749659503327</v>
       </c>
       <c r="F15">
-        <v>1.019551342889532</v>
+        <v>1.01988866444122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039664615140739</v>
+        <v>1.040053205862615</v>
       </c>
       <c r="J15">
-        <v>1.018573761531616</v>
+        <v>1.019297139751116</v>
       </c>
       <c r="K15">
-        <v>1.024426326846725</v>
+        <v>1.025114832174406</v>
       </c>
       <c r="L15">
-        <v>1.013202344296805</v>
+        <v>1.013844203564373</v>
       </c>
       <c r="M15">
-        <v>1.034043800178384</v>
+        <v>1.034375109346569</v>
       </c>
       <c r="N15">
-        <v>1.010204200574208</v>
+        <v>1.012792693674731</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036820726259389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037082589884587</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019215635576594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9910853856561379</v>
+        <v>0.9917064258373089</v>
       </c>
       <c r="D16">
-        <v>1.01122559260073</v>
+        <v>1.011772110253562</v>
       </c>
       <c r="E16">
-        <v>0.9999851078312455</v>
+        <v>1.000522662631225</v>
       </c>
       <c r="F16">
-        <v>1.021047962904051</v>
+        <v>1.021322929839949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040168867348331</v>
+        <v>1.040478762295977</v>
       </c>
       <c r="J16">
-        <v>1.019579281361558</v>
+        <v>1.020175151368127</v>
       </c>
       <c r="K16">
-        <v>1.025358989616592</v>
+        <v>1.025895956336418</v>
       </c>
       <c r="L16">
-        <v>1.014317952630372</v>
+        <v>1.014845836633578</v>
       </c>
       <c r="M16">
-        <v>1.03501171857026</v>
+        <v>1.0352819972125</v>
       </c>
       <c r="N16">
-        <v>1.010538197909835</v>
+        <v>1.012818553743763</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037546959267957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.037760591028803</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019365457755629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,93 +1279,111 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9923856132175123</v>
+        <v>0.9929387765167753</v>
       </c>
       <c r="D17">
-        <v>1.012081702897933</v>
+        <v>1.012547000810831</v>
       </c>
       <c r="E17">
-        <v>1.000961123433892</v>
+        <v>1.00144018533072</v>
       </c>
       <c r="F17">
-        <v>1.02168359552617</v>
+        <v>1.021927247246866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040431315568247</v>
+        <v>1.040700943101526</v>
       </c>
       <c r="J17">
-        <v>1.020139578876719</v>
+        <v>1.020671037896074</v>
       </c>
       <c r="K17">
-        <v>1.025881161113767</v>
+        <v>1.026338554908963</v>
       </c>
       <c r="L17">
-        <v>1.014952321635373</v>
+        <v>1.015423009915025</v>
       </c>
       <c r="M17">
-        <v>1.03532182234715</v>
+        <v>1.035561433505586</v>
       </c>
       <c r="N17">
-        <v>1.010716530435504</v>
+        <v>1.01284999918164</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037662707872476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.037852118563804</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019444353351787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9930204316694006</v>
+        <v>0.9935482997473588</v>
       </c>
       <c r="D18">
-        <v>1.012475512104688</v>
+        <v>1.012909615423192</v>
       </c>
       <c r="E18">
-        <v>1.001421241428036</v>
+        <v>1.001878938811136</v>
       </c>
       <c r="F18">
-        <v>1.02153092352602</v>
+        <v>1.02176326040437</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040495698196378</v>
+        <v>1.040750574487006</v>
       </c>
       <c r="J18">
-        <v>1.020349736802296</v>
+        <v>1.020857279990813</v>
       </c>
       <c r="K18">
-        <v>1.026082321420448</v>
+        <v>1.026509171635545</v>
       </c>
       <c r="L18">
-        <v>1.015215487406915</v>
+        <v>1.015665317950899</v>
       </c>
       <c r="M18">
-        <v>1.034988074064604</v>
+        <v>1.035216615969766</v>
       </c>
       <c r="N18">
-        <v>1.010770691660877</v>
+        <v>1.012846917660583</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037160437232753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.037341135601948</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019463684201428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9930325147223796</v>
+        <v>0.9935694628645916</v>
       </c>
       <c r="D19">
-        <v>1.012433120615078</v>
+        <v>1.01287890332411</v>
       </c>
       <c r="E19">
-        <v>1.001396428916908</v>
+        <v>1.001862683479096</v>
       </c>
       <c r="F19">
-        <v>1.020604516517387</v>
+        <v>1.020841869338243</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040368800795505</v>
+        <v>1.040630256955274</v>
       </c>
       <c r="J19">
-        <v>1.020225170861869</v>
+        <v>1.020741566606056</v>
       </c>
       <c r="K19">
-        <v>1.025977227253593</v>
+        <v>1.026415600872056</v>
       </c>
       <c r="L19">
-        <v>1.01512668737097</v>
+        <v>1.015584970601076</v>
       </c>
       <c r="M19">
-        <v>1.034014132122238</v>
+        <v>1.034247619751379</v>
       </c>
       <c r="N19">
-        <v>1.010708076974749</v>
+        <v>1.012789318521317</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036063507751851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.036248177268077</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019425101170617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,93 +1447,111 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.99130834307009</v>
+        <v>0.9919474233329723</v>
       </c>
       <c r="D20">
-        <v>1.011178685948334</v>
+        <v>1.01175315167376</v>
       </c>
       <c r="E20">
-        <v>1.000021613198605</v>
+        <v>1.000577543210729</v>
       </c>
       <c r="F20">
-        <v>1.017622062188089</v>
+        <v>1.0179091037136</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039720077249404</v>
+        <v>1.040046335494501</v>
       </c>
       <c r="J20">
-        <v>1.019178474479727</v>
+        <v>1.019792326717463</v>
       </c>
       <c r="K20">
-        <v>1.025027778968939</v>
+        <v>1.025592437076758</v>
       </c>
       <c r="L20">
-        <v>1.014064082575039</v>
+        <v>1.014610244813909</v>
       </c>
       <c r="M20">
-        <v>1.0313619681626</v>
+        <v>1.031644187056678</v>
       </c>
       <c r="N20">
-        <v>1.010324525115512</v>
+        <v>1.012573536518659</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033434389049993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.033657737352202</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019228060012555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9871722642901688</v>
+        <v>0.9880812479314879</v>
       </c>
       <c r="D21">
-        <v>1.008389654084569</v>
+        <v>1.009271629612714</v>
       </c>
       <c r="E21">
-        <v>0.9968724078167662</v>
+        <v>0.9976639886717165</v>
       </c>
       <c r="F21">
-        <v>1.014370541064976</v>
+        <v>1.01478487982069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038701660349164</v>
+        <v>1.039187054170205</v>
       </c>
       <c r="J21">
-        <v>1.017216273724873</v>
+        <v>1.018085879897142</v>
       </c>
       <c r="K21">
-        <v>1.023213806242513</v>
+        <v>1.024079451684277</v>
       </c>
       <c r="L21">
-        <v>1.011913276643935</v>
+        <v>1.012689753065785</v>
       </c>
       <c r="M21">
-        <v>1.029084679576078</v>
+        <v>1.029491459414116</v>
       </c>
       <c r="N21">
-        <v>1.009660533957847</v>
+        <v>1.012530036119056</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031590907474953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.031912850413454</v>
+      </c>
+      <c r="S21">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T21">
+        <v>1.018928628584143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9845494347082541</v>
+        <v>0.9856286943585947</v>
       </c>
       <c r="D22">
-        <v>1.006630709263208</v>
+        <v>1.007706701552844</v>
       </c>
       <c r="E22">
-        <v>0.9948860408363437</v>
+        <v>0.9958261528050322</v>
       </c>
       <c r="F22">
-        <v>1.012405424453216</v>
+        <v>1.012900293693772</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038060865677351</v>
+        <v>1.038646590685409</v>
       </c>
       <c r="J22">
-        <v>1.015983073060407</v>
+        <v>1.017012879458186</v>
       </c>
       <c r="K22">
-        <v>1.022071945078157</v>
+        <v>1.023127017711113</v>
       </c>
       <c r="L22">
-        <v>1.010559491581447</v>
+        <v>1.011480750373633</v>
       </c>
       <c r="M22">
-        <v>1.027735069220322</v>
+        <v>1.028220453043858</v>
       </c>
       <c r="N22">
-        <v>1.009244622141263</v>
+        <v>1.012498987984217</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030522767128732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.030906921190542</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018739527976849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9859444841439771</v>
+        <v>0.9869225046600144</v>
       </c>
       <c r="D23">
-        <v>1.007565806166917</v>
+        <v>1.008530207440529</v>
       </c>
       <c r="E23">
-        <v>0.9959418467702188</v>
+        <v>0.9967934165157886</v>
       </c>
       <c r="F23">
-        <v>1.013449786961356</v>
+        <v>1.013896843384891</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038402386695173</v>
+        <v>1.038929384034909</v>
       </c>
       <c r="J23">
-        <v>1.016639127786592</v>
+        <v>1.01757363829542</v>
       </c>
       <c r="K23">
-        <v>1.022679483931614</v>
+        <v>1.023625610699727</v>
       </c>
       <c r="L23">
-        <v>1.011279440803157</v>
+        <v>1.012114373927659</v>
       </c>
       <c r="M23">
-        <v>1.028452675174886</v>
+        <v>1.028891382561048</v>
       </c>
       <c r="N23">
-        <v>1.009465889186514</v>
+        <v>1.012473942084793</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031090711902423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.031437923908953</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018837883418827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.991335746325185</v>
+        <v>0.9919745091840035</v>
       </c>
       <c r="D24">
-        <v>1.01118939501214</v>
+        <v>1.011763715519551</v>
       </c>
       <c r="E24">
-        <v>1.000037525569307</v>
+        <v>1.000593254801921</v>
       </c>
       <c r="F24">
-        <v>1.01750426809266</v>
+        <v>1.017791298721684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039706901222623</v>
+        <v>1.040033141950385</v>
       </c>
       <c r="J24">
-        <v>1.019171447821426</v>
+        <v>1.019785032641325</v>
       </c>
       <c r="K24">
-        <v>1.025022820967342</v>
+        <v>1.025587349203087</v>
       </c>
       <c r="L24">
-        <v>1.014063982248646</v>
+        <v>1.014609960224793</v>
       </c>
       <c r="M24">
-        <v>1.031230807480312</v>
+        <v>1.031513020409333</v>
       </c>
       <c r="N24">
-        <v>1.01031985060874</v>
+        <v>1.012565935088562</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033289443093725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.033512797933734</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019224210579369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.997394694198985</v>
+        <v>0.9977970952926752</v>
       </c>
       <c r="D25">
-        <v>1.015280115151545</v>
+        <v>1.015528394864395</v>
       </c>
       <c r="E25">
-        <v>1.004670554276602</v>
+        <v>1.005022065331062</v>
       </c>
       <c r="F25">
-        <v>1.022096890993256</v>
+        <v>1.022271077123726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041140362653721</v>
+        <v>1.041311889870884</v>
       </c>
       <c r="J25">
-        <v>1.022010056515939</v>
+        <v>1.022398824082558</v>
       </c>
       <c r="K25">
-        <v>1.027645769013393</v>
+        <v>1.027890341838761</v>
       </c>
       <c r="L25">
-        <v>1.017196796005828</v>
+        <v>1.01754291725686</v>
       </c>
       <c r="M25">
-        <v>1.034361598888647</v>
+        <v>1.034533227985372</v>
       </c>
       <c r="N25">
-        <v>1.011276808317456</v>
+        <v>1.013218891426524</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035767275336943</v>
+        <v>1.035903109146207</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019677870919208</v>
       </c>
     </row>
   </sheetData>
